--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E5898-9D88-43C9-B271-B30AB403DC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0258CEC1-B728-4F72-A4C7-91ADE66EC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="eficientnet" sheetId="2" r:id="rId2"/>
     <sheet name="densenet" sheetId="3" r:id="rId3"/>
+    <sheet name="compose" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Dataset</t>
   </si>
@@ -164,6 +165,27 @@
   <si>
     <t>OneCycle 
 - lr: 2*1e-4</t>
+  </si>
+  <si>
+    <t>No argument</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>Resnet18</t>
+  </si>
+  <si>
+    <t>densenet121</t>
+  </si>
+  <si>
+    <t>efficientnetB0</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>Resnet34</t>
   </si>
 </sst>
 </file>
@@ -236,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -251,11 +273,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P5" sqref="P5:P11"/>
     </sheetView>
   </sheetViews>
@@ -567,18 +592,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -590,47 +615,47 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1068,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA089DF-97F9-43C1-BBB0-F229B43CED3B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1171,7 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>82.73</v>
       </c>
     </row>
@@ -1160,4 +1185,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
+  <dimension ref="A3:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="B6">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="C6">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="D6">
+        <v>79.91</v>
+      </c>
+      <c r="E6">
+        <v>80.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0258CEC1-B728-4F72-A4C7-91ADE66EC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D7B74-2CB7-443F-90F1-CD1488DFEC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Dataset</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Resnet34</t>
+  </si>
+  <si>
+    <t>Before modify code</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Epoch</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,9 +1210,10 @@
     <col min="2" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1212,7 +1222,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
@@ -1221,7 +1231,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>78.790000000000006</v>
       </c>
@@ -1253,6 +1263,49 @@
       </c>
       <c r="E6">
         <v>80.58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>78.62</v>
+      </c>
+      <c r="B8">
+        <v>79.17</v>
+      </c>
+      <c r="C8">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D8">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="E8">
+        <v>80.06</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D7B74-2CB7-443F-90F1-CD1488DFEC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B82B5E-B870-4D06-AFC3-234E4CFCE17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="eficientnet" sheetId="2" r:id="rId2"/>
     <sheet name="densenet" sheetId="3" r:id="rId3"/>
     <sheet name="compose" sheetId="4" r:id="rId4"/>
+    <sheet name="Trang_tính2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>Dataset</t>
   </si>
@@ -188,13 +189,10 @@
     <t>Resnet34</t>
   </si>
   <si>
-    <t>Before modify code</t>
-  </si>
-  <si>
-    <t>After</t>
-  </si>
-  <si>
-    <t>Epoch</t>
+    <t>diceloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmentation </t>
   </si>
 </sst>
 </file>
@@ -240,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -263,11 +261,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,9 +323,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1198,31 +1243,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
@@ -1230,89 +1299,286 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>78.790000000000006</v>
+        <v>78.62</v>
       </c>
       <c r="B6">
-        <v>78.239999999999995</v>
+        <v>79.17</v>
       </c>
       <c r="C6">
-        <v>78.459999999999994</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="D6">
-        <v>79.91</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="E6">
-        <v>80.58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>78.62</v>
-      </c>
-      <c r="B8">
-        <v>79.17</v>
-      </c>
-      <c r="C8">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="D8">
-        <v>80.150000000000006</v>
-      </c>
-      <c r="E8">
         <v>80.06</v>
       </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>79.59</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J6" s="5">
+        <v>80.73</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <v>78.489999999999995</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
+        <v>81.81</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>46</v>
       </c>
-      <c r="B9">
+      <c r="B7">
         <v>31</v>
       </c>
-      <c r="C9">
+      <c r="C7">
         <v>39</v>
       </c>
-      <c r="D9">
+      <c r="D7">
         <v>34</v>
       </c>
-      <c r="E9">
+      <c r="E7">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+      <c r="I7">
+        <v>68</v>
+      </c>
+      <c r="J7">
+        <v>78</v>
+      </c>
+      <c r="P7">
+        <v>90</v>
+      </c>
+      <c r="S7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:E3"/>
+  <mergeCells count="6">
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5104FA2-9340-4FB4-A171-386719F989B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B82B5E-B870-4D06-AFC3-234E4CFCE17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743A8A4-5815-4677-9FC1-240D24C957E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="eficientnet" sheetId="2" r:id="rId2"/>
     <sheet name="densenet" sheetId="3" r:id="rId3"/>
     <sheet name="compose" sheetId="4" r:id="rId4"/>
-    <sheet name="Trang_tính2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Dataset</t>
   </si>
@@ -302,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,6 +335,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1243,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
-  <dimension ref="A3:T16"/>
+  <dimension ref="A3:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,16 +1256,16 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1276,22 +1276,19 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
@@ -1305,23 +1302,20 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -1344,46 +1338,37 @@
         <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>78.62</v>
       </c>
@@ -1403,29 +1388,28 @@
       <c r="G6" s="5">
         <v>79.59</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>80.400000000000006</v>
+      </c>
       <c r="I6" s="5">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="J6" s="5">
         <v>80.73</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="13">
+        <v>82.44</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <v>78.489999999999995</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5">
-        <v>78.489999999999995</v>
+        <v>81.81</v>
       </c>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5">
-        <v>81.81</v>
-      </c>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>46</v>
       </c>
@@ -1444,20 +1428,20 @@
       <c r="G7">
         <v>57</v>
       </c>
+      <c r="H7">
+        <v>68</v>
+      </c>
       <c r="I7">
-        <v>68</v>
-      </c>
-      <c r="J7">
         <v>78</v>
       </c>
+      <c r="N7">
+        <v>90</v>
+      </c>
       <c r="P7">
-        <v>90</v>
-      </c>
-      <c r="S7">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1466,9 +1450,8 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1477,9 +1460,8 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1488,9 +1470,8 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1499,9 +1480,8 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1510,9 +1490,8 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1521,9 +1500,8 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1532,9 +1510,8 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1543,9 +1520,8 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1554,31 +1530,17 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5104FA2-9340-4FB4-A171-386719F989B8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743A8A4-5815-4677-9FC1-240D24C957E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587489B-9661-4A2E-AADF-182B894C007D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>Dataset</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">Augmentation </t>
+  </si>
+  <si>
+    <t>Augmentation - diceloss-CRF</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -297,11 +300,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,6 +345,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,6 +362,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1243,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
-  <dimension ref="A3:Q16"/>
+  <dimension ref="A3:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,57 +1296,67 @@
     <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -1367,8 +1408,20 @@
       <c r="Q5" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>78.62</v>
       </c>
@@ -1395,11 +1448,13 @@
         <v>80.73</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="13">
+      <c r="K6" s="15">
         <v>82.44</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="14">
+        <v>83.69</v>
+      </c>
       <c r="N6" s="5">
         <v>78.489999999999995</v>
       </c>
@@ -1408,8 +1463,11 @@
         <v>81.81</v>
       </c>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="17">
+        <v>78.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>46</v>
       </c>
@@ -1441,101 +1499,102 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="R3:U4"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>

--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587489B-9661-4A2E-AADF-182B894C007D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F52973E-9C9D-4958-9051-0918BB962D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>Dataset</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Augmentation - diceloss-CRF</t>
+  </si>
+  <si>
+    <t>83,28</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
   <dimension ref="A3:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,6 +1297,7 @@
     <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1451,7 +1455,9 @@
       <c r="K6" s="15">
         <v>82.44</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="M6" s="14">
         <v>83.69</v>
       </c>
@@ -1466,6 +1472,9 @@
       <c r="R6" s="17">
         <v>78.66</v>
       </c>
+      <c r="T6">
+        <v>81.77</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1497,6 +1506,9 @@
       </c>
       <c r="P7">
         <v>91</v>
+      </c>
+      <c r="R7">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">

--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F52973E-9C9D-4958-9051-0918BB962D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01AAF8-0482-43C3-AB59-579E0533BB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,25 @@
     <sheet name="densenet" sheetId="3" r:id="rId3"/>
     <sheet name="compose" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t>Dataset</t>
   </si>
@@ -167,9 +175,6 @@
 - lr: 2*1e-4</t>
   </si>
   <si>
-    <t>No argument</t>
-  </si>
-  <si>
     <t>VGG16</t>
   </si>
   <si>
@@ -185,26 +190,29 @@
     <t>BCE</t>
   </si>
   <si>
-    <t>Resnet34</t>
-  </si>
-  <si>
     <t>diceloss</t>
   </si>
   <si>
-    <t xml:space="preserve">Augmentation </t>
-  </si>
-  <si>
-    <t>Augmentation - diceloss-CRF</t>
-  </si>
-  <si>
-    <t>83,28</t>
+    <t>No augmentation</t>
+  </si>
+  <si>
+    <t>Augmentation</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>epoch_index</t>
+  </si>
+  <si>
+    <t>Dice score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +242,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,68 +289,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -348,28 +314,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1277,19 +1230,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
-  <dimension ref="A3:U16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1300,316 +1254,266 @@
     <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="D2" s="11">
+        <v>78.62</v>
+      </c>
+      <c r="E2" s="5">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11">
+        <v>79.17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E4" s="5">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="E5" s="5">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="E6" s="5">
+        <v>76</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11">
+        <v>79.59</v>
+      </c>
+      <c r="E7" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E8" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11">
+        <v>80.73</v>
+      </c>
+      <c r="E9" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="11">
+        <v>80.47</v>
+      </c>
+      <c r="E10" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D11" s="11">
+        <v>82.44</v>
+      </c>
+      <c r="E11" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D12" s="11">
+        <v>83.28</v>
+      </c>
+      <c r="E12" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D13" s="12">
+        <v>83.69</v>
+      </c>
+      <c r="E13" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11">
+        <v>78.489999999999995</v>
+      </c>
+      <c r="E14" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="D15" s="11">
+        <v>80.42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="D16" s="11">
+        <v>81.81</v>
+      </c>
+      <c r="E16" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>78.62</v>
-      </c>
-      <c r="B6">
-        <v>79.17</v>
-      </c>
-      <c r="C6">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="D6">
-        <v>80.150000000000006</v>
-      </c>
-      <c r="E6">
-        <v>80.06</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>79.59</v>
-      </c>
-      <c r="H6" s="5">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="I6" s="5">
-        <v>80.73</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="15">
-        <v>82.44</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="14">
-        <v>83.69</v>
-      </c>
-      <c r="N6" s="5">
-        <v>78.489999999999995</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
-        <v>81.81</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="17">
-        <v>78.66</v>
-      </c>
-      <c r="T6">
-        <v>81.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>57</v>
-      </c>
-      <c r="H7">
-        <v>68</v>
-      </c>
-      <c r="I7">
-        <v>78</v>
-      </c>
-      <c r="N7">
-        <v>90</v>
-      </c>
-      <c r="P7">
-        <v>91</v>
-      </c>
-      <c r="R7">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="D17" s="11">
+        <v>82.98</v>
+      </c>
+      <c r="E17" s="5">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="R3:U4"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01AAF8-0482-43C3-AB59-579E0533BB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF4A52-E780-44FB-9DF3-44D0303C4F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="eficientnet" sheetId="2" r:id="rId2"/>
-    <sheet name="densenet" sheetId="3" r:id="rId3"/>
-    <sheet name="compose" sheetId="4" r:id="rId4"/>
+    <sheet name="focal-efficient" sheetId="2" r:id="rId2"/>
+    <sheet name="compose" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Dataset</t>
   </si>
@@ -160,19 +159,6 @@
   </si>
   <si>
     <t>200 epochs</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>BrainTumor</t>
-  </si>
-  <si>
-    <t>Dice loss</t>
-  </si>
-  <si>
-    <t>OneCycle 
-- lr: 2*1e-4</t>
   </si>
   <si>
     <t>VGG16</t>
@@ -293,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,9 +294,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -605,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5:P11"/>
     </sheetView>
   </sheetViews>
@@ -633,18 +616,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -656,47 +639,47 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1131,109 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA089DF-97F9-43C1-BBB0-F229B43CED3B}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
-        <v>82.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,114 +1140,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>47</v>
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="11">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10">
         <v>78.62</v>
       </c>
       <c r="E2" s="5">
         <v>46</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10">
         <v>79.17</v>
       </c>
       <c r="E3" s="5">
         <v>31</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="11">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10">
         <v>79.900000000000006</v>
       </c>
       <c r="E4" s="5">
         <v>39</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="11">
+        <v>42</v>
+      </c>
+      <c r="D5" s="10">
         <v>80.150000000000006</v>
       </c>
       <c r="E5" s="5">
         <v>34</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="11">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10">
         <v>78.569999999999993</v>
       </c>
       <c r="E6" s="5">
         <v>76</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="11">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10">
         <v>79.59</v>
       </c>
       <c r="E7" s="5">
@@ -1370,12 +1255,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="11">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10">
         <v>80.400000000000006</v>
       </c>
       <c r="E8" s="5">
@@ -1383,12 +1268,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="11">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10">
         <v>80.73</v>
       </c>
       <c r="E9" s="5">
@@ -1396,16 +1281,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="11">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10">
         <v>80.47</v>
       </c>
       <c r="E10" s="5">
@@ -1413,12 +1298,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10">
         <v>82.44</v>
       </c>
       <c r="E11" s="5">
@@ -1426,12 +1311,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10">
         <v>83.28</v>
       </c>
       <c r="E12" s="5">
@@ -1439,12 +1324,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12">
+        <v>42</v>
+      </c>
+      <c r="D13" s="11">
         <v>83.69</v>
       </c>
       <c r="E13" s="5">
@@ -1452,14 +1337,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>48</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10">
         <v>78.489999999999995</v>
       </c>
       <c r="E14" s="5">
@@ -1467,25 +1352,25 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="11">
-        <v>80.42</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="10">
+        <v>82.24</v>
       </c>
       <c r="E15" s="5">
-        <v>99</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="11">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10">
         <v>81.81</v>
       </c>
       <c r="E16" s="5">
@@ -1493,16 +1378,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="11">
-        <v>82.98</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="10">
+        <v>83.65</v>
       </c>
       <c r="E17" s="5">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/w5/experiments.xlsx
+++ b/w5/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF4A52-E780-44FB-9DF3-44D0303C4F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C7C45-80ED-4639-91C5-9698634A564A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,18 +294,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -616,18 +616,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -639,47 +639,47 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB22BF97-EBB0-41B6-8A6B-48CCD7AEFF95}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G15:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,114 +1140,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>78.62</v>
       </c>
       <c r="E2" s="5">
         <v>46</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>79.17</v>
       </c>
       <c r="E3" s="5">
         <v>31</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>79.900000000000006</v>
       </c>
       <c r="E4" s="5">
         <v>39</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>80.150000000000006</v>
       </c>
       <c r="E5" s="5">
         <v>34</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>78.569999999999993</v>
       </c>
       <c r="E6" s="5">
         <v>76</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>79.59</v>
       </c>
       <c r="E7" s="5">
@@ -1255,12 +1255,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>80.400000000000006</v>
       </c>
       <c r="E8" s="5">
@@ -1268,12 +1268,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>80.73</v>
       </c>
       <c r="E9" s="5">
@@ -1281,16 +1281,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>80.47</v>
       </c>
       <c r="E10" s="5">
@@ -1298,12 +1298,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>82.44</v>
       </c>
       <c r="E11" s="5">
@@ -1311,12 +1311,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>83.28</v>
       </c>
       <c r="E12" s="5">
@@ -1324,12 +1324,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>83.69</v>
       </c>
       <c r="E13" s="5">
@@ -1337,14 +1337,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>78.489999999999995</v>
       </c>
       <c r="E14" s="5">
@@ -1352,12 +1352,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>82.24</v>
       </c>
       <c r="E15" s="5">
@@ -1365,25 +1365,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10">
-        <v>81.81</v>
+      <c r="D16" s="7">
+        <v>82.41</v>
       </c>
       <c r="E16" s="5">
-        <v>91</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>83.65</v>
       </c>
       <c r="E17" s="5">
@@ -1392,13 +1392,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
